--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/training/training_act11d0_01_a.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/training/training_act11d0_01_a.xlsx
@@ -116,7 +116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] The purpose of today's training is to learn how to handle the L-44 "Gramophone" Arts unit. Semi-autonomous arts units such as these are becoming increasingly popularized in certain countries, so we'll have to master their operation.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] The purpose of today's training is to learn how to handle the L-44 'Gramophone' Arts unit. Semi-autonomous arts units such as these are becoming increasingly popularized in certain countries, so we'll have to master their operation.
 </t>
   </si>
   <si>
@@ -148,7 +148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] Right now, the best way to understand how to control the L-44 "Gramophone" is with practice.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] Right now, the best way to understand how to control the L-44 'Gramophone' is with practice.
 </t>
   </si>
   <si>
